--- a/biology/Zoologie/Bertolanius/Bertolanius.xlsx
+++ b/biology/Zoologie/Bertolanius/Bertolanius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertolanius est un genre de tardigrades de la famille des Eohypsibiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Degma, Bertolani et Guidetti, 2016[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Degma, Bertolani et Guidetti, 2016 :
 Bertolanius birnae Hansen, Kristensen, Bertolani &amp; Guidetti, 2016
 Bertolanius mahunkai (Iharos, 1971)
 Bertolanius markevichi (Biserov, 1992)
@@ -549,9 +563,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Roberto Bertolani[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Roberto Bertolani.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Özdikmen, 2008 : Bertolanius nom. nov., a replacement name for the genus Amphibolus Bertolani, 1981 (Tardigrada: Parachela) with type species designation. Munis Entomology &amp; Zoology, vol. 3, no 1, p. 330-332 (texte intégral).
 Bertolani, 1981 : The taxonomic position of some eutardigrades. Bollettino di Zoologia, vol. 48, no 2, p. 197-203</t>
